--- a/test/attack-tool/tools.xlsx
+++ b/test/attack-tool/tools.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="jmeter" sheetId="1" r:id="rId1"/>
+    <sheet name="gatling" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t xml:space="preserve">  ※ GUI である程度サポートしてくれる。</t>
     <rPh sb="11" eb="13">
@@ -598,18 +599,280 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">  ※ binary 試験がうまくいかなったが、解決方法不明。</t>
+    <t xml:space="preserve">  ※ binary 試験がうまくいかなったのは、おそらく client サーバ上に binary file を用意しなかったことによるもの。</t>
     <rPh sb="11" eb="13">
       <t>シケン</t>
     </rPh>
-    <rPh sb="24" eb="26">
-      <t>カイケツ</t>
+    <rPh sb="40" eb="41">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ windows へのインストールは単純だったので割愛 (bin/jmeter.bat 起動でシナリオ作成が可能)</t>
+    <rPh sb="19" eb="21">
+      <t>タンジュン</t>
     </rPh>
     <rPh sb="26" eb="28">
-      <t>ホウホウ</t>
+      <t>カツアイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* 構成</t>
+    <rPh sb="2" eb="4">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* recorder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ※ あらかじめ recorder 用にプロキシ設定を行う必要がある</t>
+    <rPh sb="19" eb="20">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ブラウザでの実施結果 -&gt; simulation ファイル生成</t>
+    <rPh sb="8" eb="10">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ※ VBA でいうマクロの記録と同じ</t>
+    <rPh sb="15" eb="17">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* 実施</t>
+    <rPh sb="2" eb="4">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    - xxxx.scala</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    - xxxx20191010123456 (実施結果)</t>
+    <rPh sb="26" eb="28">
+      <t>ジッシ</t>
     </rPh>
     <rPh sb="28" eb="30">
-      <t>フメイ</t>
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    - …</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - user-files/simulations (試験計画格納フォルダ ※ ここにあるものを選択して実行)</t>
+    <rPh sb="32" eb="34">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - results (実施結果 ※ 実施した scala ファイル及び実行時間別に report が生成される)</t>
+    <rPh sb="13" eb="15">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  gatling.bat を実行し、試験計画格納フォルダより選択して実行</t>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* scala スクリプト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  バージョン別に記述できる DSL が異なる点に注意</t>
+    <rPh sb="7" eb="8">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ※ logback をいじれば、全 request/response の内容出力可能 (DSL で check できるので、WARN でエラーのみ表示にするとかもできる https://gatling.io/docs/2.2/general/debugging/)</t>
+    <rPh sb="18" eb="19">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ※ 公式のサンプルテストが役立つ (https://github.com/gatling/gatling/blob/master/src/sphinx/http/code/HttpRequestSample.scala)</t>
+    <rPh sb="4" eb="6">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヤクダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. gatling インストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ※ 公式サイトから zip ファイルを展開し、配置するだけ</t>
+    <rPh sb="5" eb="7">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; sh gatling/bin/gatling.sh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ※ gatling.log には右の内容が text 形式で保存</t>
+    <rPh sb="19" eb="20">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ※ あらかじめ windows マシンで作成した実行計画 (scala) 及び logback.xml を転送しておくこと</t>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>テンソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -807,6 +1070,199 @@
         <a:xfrm>
           <a:off x="8429625" y="14782800"/>
           <a:ext cx="12973050" cy="6943725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="638175" y="1390650"/>
+          <a:ext cx="4029075" cy="1800225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>75389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8467724" y="532589"/>
+          <a:ext cx="7515225" cy="4791886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8543925" y="5619750"/>
+          <a:ext cx="11172825" cy="7162800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8562975" y="13258800"/>
+          <a:ext cx="9944100" cy="5915025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1234,6 +1690,11 @@
         <v>19</v>
       </c>
     </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="51" spans="2:2">
       <c r="B51" s="1" t="s">
         <v>23</v>
@@ -1387,6 +1848,179 @@
     <row r="123" spans="2:2">
       <c r="B123" s="1" t="s">
         <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:N54"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/test/attack-tool/tools.xlsx
+++ b/test/attack-tool/tools.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="24795" windowHeight="10305"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="24795" windowHeight="10305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="jmeter" sheetId="1" r:id="rId1"/>
     <sheet name="gatling" sheetId="2" r:id="rId2"/>
+    <sheet name="locust" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
   <si>
     <t xml:space="preserve">  ※ GUI である程度サポートしてくれる。</t>
     <rPh sb="11" eb="13">
@@ -873,6 +874,231 @@
     </rPh>
     <rPh sb="56" eb="58">
       <t>テンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>windows の場合 http://localhost:8089 にアクセス</t>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; sudo tar zxvf Python-3.6.3.tgz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; cd Python-3.6.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; sudo make</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; sudo make install</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; /usr/local/python363/bin/locust -H http://localhost -f senario.py -L DEBUG --logfile ./locustfile.log</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* slave</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. python3 系インストール</t>
+    <rPh sb="11" eb="12">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. locust インストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; http://ec2-3-115-12-156.ap-northeast-1.compute.amazonaws.com:8089 にアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. 結果</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   logfile 及び csv ダウンロード可能。後は右図のようなページ</t>
+    <rPh sb="11" eb="12">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ※ あらかじめ windows マシンで作成した実行計画 (py) を転送しておくこと</t>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>テンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ※ 攻撃サーバ = 対象サーバなので localhost で OK</t>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ※ セキュリティグループのインバウンドルールに 8089 ポートを開く必要有り</t>
+    <rPh sb="35" eb="36">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ※ 右図の欄に何クライアント作成するか/クライアントの作成スピード(毎秒)を指定</t>
+    <rPh sb="4" eb="5">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>マイビョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &gt; http://ec2-3-115-12-156.ap-northeast-1.compute.amazonaws.com:8089 にアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ 各マシンに locust のインストールまで実施する必要がある</t>
+    <rPh sb="2" eb="3">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; sudo yum update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; sudo yum install gcc libgcc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; sudo yum install zlib-devel openssl-devel tk-devel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; cd /usr/local/src/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; sudo wget https://www.python.org/ftp/python/3.6.3/Python-3.6.3.tgz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; sudo ./configure --prefix=/usr/local/python363 --with-ensurepip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; sudo /usr/local/python363/bin/python3 -m pip install locustio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &gt; /usr/local/python363/bin/locust -H http://umejima-vpc-elb-394473554.ap-northeast-1.elb.amazonaws.com -f senario.py -L DEBUG --logfile ./locustfile.log --master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &gt; /usr/local/python363/bin/locust -H http://umejima-vpc-elb-394473554.ap-northeast-1.elb.amazonaws.com -f senario.py -L DEBUG --logfile ./locustfile.log --slave --master-host==[master_host]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ※ master-slave 通信用にセキュリティグループ設定が必要 (5557, 5558 ポートを開く)</t>
+    <rPh sb="17" eb="20">
+      <t>ツウシンヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ※ master-host には、master のホスト名を設定する必要がある</t>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1282,6 +1508,152 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>70928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7962900" y="12720128"/>
+          <a:ext cx="14011274" cy="6672772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10210800" y="7124700"/>
+          <a:ext cx="4086225" cy="3524250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>63031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10639425" y="0"/>
+          <a:ext cx="8524875" cy="6006631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1569,7 +1941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -1862,7 +2234,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N54"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -2029,4 +2403,224 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:B87"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/test/attack-tool/tools.xlsx
+++ b/test/attack-tool/tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="24795" windowHeight="10305" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="24795" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="jmeter" sheetId="1" r:id="rId1"/>
@@ -1941,7 +1941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N123"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -2409,7 +2409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>

--- a/test/attack-tool/tools.xlsx
+++ b/test/attack-tool/tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="24795" windowHeight="10305"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="24795" windowHeight="10305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="jmeter" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
   <si>
     <t xml:space="preserve">  ※ GUI である程度サポートしてくれる。</t>
     <rPh sb="11" eb="13">
@@ -1070,10 +1070,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">  &gt; /usr/local/python363/bin/locust -H http://umejima-vpc-elb-394473554.ap-northeast-1.elb.amazonaws.com -f senario.py -L DEBUG --logfile ./locustfile.log --slave --master-host==[master_host]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">  ※ master-slave 通信用にセキュリティグループ設定が必要 (5557, 5558 ポートを開く)</t>
     <rPh sb="17" eb="20">
       <t>ツウシンヨウ</t>
@@ -1099,6 +1095,113 @@
     </rPh>
     <rPh sb="36" eb="38">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; sudo yum update -y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; sudo yum install -y docker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; sudo service docker start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. Dockerfile と synario.py を転送</t>
+    <rPh sb="28" eb="30">
+      <t>テンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. Docker インストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. Docker Build</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; sudo docker build -t locust-docker-image .</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. Docker Run (Master)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5. Docker Run (Slave)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &gt; /usr/local/python363/bin/locust -H http://umejima-vpc-elb-394473554.ap-northeast-1.elb.amazonaws.com -f senario.py -L DEBUG --logfile ./locustfile.log --slave --master-host=[master_host]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; sudo docker run --name master -itd -p 8089:8089 -p 5557:5557 -p 5558:5558 locust-docker-image -H http://umejima-vpc-elb-394473554.ap-northeast-1.elb.amazonaws.com --master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; sudo docker run --link master -itd locust-docker-image -H http://umejima-vpc-elb-394473554.ap-northeast-1.elb.amazonaws.com --slave --master-host=master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6. master GUI 表示</t>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ※ 4 で稼働している container のホスト:8089 にアクセス</t>
+    <rPh sb="8" eb="10">
+      <t>カドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7. 実施</t>
+    <rPh sb="3" eb="5">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ※ 必要な slave 分だけ実施</t>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ※ ↑の例では同一マシン上に master/slave が出来上がるが、別マシンで master マシンの container に link すれば良い。</t>
+    <rPh sb="7" eb="8">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1941,7 +2044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -2407,9 +2510,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B87"/>
+  <dimension ref="B2:B156"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -2574,7 +2677,7 @@
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="2:2">
@@ -2584,7 +2687,7 @@
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="2:2">
@@ -2594,12 +2697,12 @@
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="2:2">
@@ -2615,6 +2718,91 @@
     <row r="87" spans="2:2">
       <c r="B87" s="1" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/test/attack-tool/tools.xlsx
+++ b/test/attack-tool/tools.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\umejima\work\public\test\attack-tool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FDB4B8-0049-4D43-9291-D97211CFC704}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="24795" windowHeight="10305" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jmeter" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
   <si>
     <t xml:space="preserve">  ※ GUI である程度サポートしてくれる。</t>
     <rPh sb="11" eb="13">
@@ -1142,14 +1148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">   &gt; sudo docker run --name master -itd -p 8089:8089 -p 5557:5557 -p 5558:5558 locust-docker-image -H http://umejima-vpc-elb-394473554.ap-northeast-1.elb.amazonaws.com --master</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   &gt; sudo docker run --link master -itd locust-docker-image -H http://umejima-vpc-elb-394473554.ap-northeast-1.elb.amazonaws.com --slave --master-host=master</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>6. master GUI 表示</t>
     <rPh sb="14" eb="16">
       <t>ヒョウジ</t>
@@ -1202,6 +1200,47 @@
     </rPh>
     <rPh sb="77" eb="78">
       <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ※ 攻撃対象を host 欄に (ELB 等を) 入力</t>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; sudo docker run --name master -itd -p 8089:8089 -p 5557:5557 -p 5558:5558 locust-docker-image -L DEBUG --logfile ./locustfile.log --master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; sudo docker run --link master -itd locust-docker-image -L DEBUG --logfile ./locustfile.log --slave --master-host=master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; sudo docker run -itd locust-docker-image -L DEBUG --logfile ./locustfile.log --slave --master-host=${Master Host IP Address}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ※ 別マシンからつなぐ場合は↑で OK (port は 5557, 5558 でやり取りされる)</t>
+    <rPh sb="5" eb="6">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1209,8 +1248,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1269,6 +1308,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1289,7 +1336,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1336,7 +1389,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1383,7 +1442,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1435,7 +1500,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPr id="2049" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1482,7 +1553,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1529,7 +1606,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1576,7 +1659,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPr id="1027" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1628,7 +1717,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1675,7 +1770,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1722,7 +1823,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPr id="1027" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1800,7 +1907,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1832,9 +1939,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1866,6 +1991,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2041,23 +2184,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N123"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2065,262 +2208,262 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B99" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B102" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B104" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B105" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B110" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B111" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B112" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B114" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B115" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B117" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B118" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B121" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B122" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B123" s="1" t="s">
         <v>51</v>
       </c>
@@ -2334,25 +2477,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N54"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>62</v>
       </c>
@@ -2360,142 +2503,142 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>72</v>
       </c>
@@ -2509,300 +2652,315 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:B160"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B71" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B72" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B79" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B81" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B83" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B85" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B86" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B87" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B134" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B135" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B137" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B138" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B139" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B140" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="142" spans="2:2">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B142" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B143" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B145" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B146" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B148" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B149" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B150" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B151" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B153" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B154" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B156" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B157" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="1" t="s">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B158" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="1" t="s">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B160" s="1" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/test/attack-tool/tools.xlsx
+++ b/test/attack-tool/tools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\umejima\work\public\test\attack-tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FDB4B8-0049-4D43-9291-D97211CFC704}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D158459-CBA5-4AA8-A645-3B5E1E673C95}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="750" windowWidth="28800" windowHeight="11535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jmeter" sheetId="1" r:id="rId1"/>
@@ -1220,18 +1220,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">   &gt; sudo docker run --name master -itd -p 8089:8089 -p 5557:5557 -p 5558:5558 locust-docker-image -L DEBUG --logfile ./locustfile.log --master</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   &gt; sudo docker run --link master -itd locust-docker-image -L DEBUG --logfile ./locustfile.log --slave --master-host=master</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   &gt; sudo docker run -itd locust-docker-image -L DEBUG --logfile ./locustfile.log --slave --master-host=${Master Host IP Address}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">   ※ 別マシンからつなぐ場合は↑で OK (port は 5557, 5558 でやり取りされる)</t>
     <rPh sb="5" eb="6">
       <t>ベツ</t>
@@ -1242,6 +1230,18 @@
     <rPh sb="45" eb="46">
       <t>ト</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; sudo docker run --name master -itd -p 8089:8089 -p 5557:5557 -p 5558:5558 locust-docker-image --master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; sudo docker run --link master -itd locust-docker-image --slave --master-host=master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; sudo docker run -itd locust-docker-image --slave --master-host=${Master Host IP Address}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B146" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.15">
@@ -2920,7 +2920,7 @@
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B149" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.15">
@@ -2935,12 +2935,12 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B153" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B154" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.15">

--- a/test/attack-tool/tools.xlsx
+++ b/test/attack-tool/tools.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\umejima\work\public\test\attack-tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D158459-CBA5-4AA8-A645-3B5E1E673C95}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B010A6-E08E-4606-BBC0-1B52D8E18882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="750" windowWidth="28800" windowHeight="11535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11445" yWindow="3585" windowWidth="22290" windowHeight="11535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jmeter" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
   <si>
     <t xml:space="preserve">  ※ GUI である程度サポートしてくれる。</t>
     <rPh sb="11" eb="13">
@@ -1132,10 +1132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">   &gt; sudo docker build -t locust-docker-image .</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4. Docker Run (Master)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1162,13 +1158,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7. 実施</t>
-    <rPh sb="3" eb="5">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">   ※ 必要な slave 分だけ実施</t>
     <rPh sb="5" eb="7">
       <t>ヒツヨウ</t>
@@ -1242,6 +1231,10 @@
   </si>
   <si>
     <t xml:space="preserve">   &gt; sudo docker run -itd locust-docker-image --slave --master-host=${Master Host IP Address}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; sudo docker build -t locust-docker-image . --build-arg OPERATION_ID=${OPERATION_ID}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2653,7 +2646,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:B160"/>
+  <dimension ref="B2:B158"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2830,7 +2823,7 @@
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.15">
@@ -2900,67 +2893,62 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B143" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B145" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B146" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B148" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B149" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B150" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B151" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B153" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B154" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B156" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B157" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B158" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B160" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/test/attack-tool/tools.xlsx
+++ b/test/attack-tool/tools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\umejima\work\public\test\attack-tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B010A6-E08E-4606-BBC0-1B52D8E18882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3186E28B-ECDC-4BB6-9A7F-AE12FDA65418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11445" yWindow="3585" windowWidth="22290" windowHeight="11535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jmeter" sheetId="1" r:id="rId1"/>
@@ -1226,15 +1226,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">   &gt; sudo docker run --link master -itd locust-docker-image --slave --master-host=master</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">   &gt; sudo docker run -itd locust-docker-image --slave --master-host=${Master Host IP Address}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">   &gt; sudo docker build -t locust-docker-image . --build-arg OPERATION_ID=${OPERATION_ID}</t>
+    <t xml:space="preserve">   &gt; sudo docker run --link master -itd locust-docker-image --slave --master-host=master --logfile ./locustfile.log</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; sudo docker build -t locust-docker-image .</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2648,7 +2648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:B158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2913,7 +2915,7 @@
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B149" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.15">
@@ -2928,7 +2930,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B153" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.15">
